--- a/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -36,13 +36,7 @@
     <t>Journal de travail</t>
   </si>
   <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>blablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablabla</t>
-  </si>
-  <si>
-    <t>blablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablablabla</t>
+    <t>Bryan Curchod</t>
   </si>
 </sst>
 </file>
@@ -442,30 +436,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.5546875" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,160 +470,148 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>43150</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>43152</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="9">
         <f>SUM(C5:C31)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B9F007DE-095B-4259-9E14-9CB329C5DCD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -37,12 +38,99 @@
   </si>
   <si>
     <t>Bryan Curchod</t>
+  </si>
+  <si>
+    <t>Discussion sur le sujet du Projet</t>
+  </si>
+  <si>
+    <t>Relecture et élaboration de la présentation du projet</t>
+  </si>
+  <si>
+    <t>Discussion avec le professeur sur le projet et le cahier des charges</t>
+  </si>
+  <si>
+    <t>Elaboration des fonctionnalités</t>
+  </si>
+  <si>
+    <t>Relectures des fonctionnalités et discussions sur les nécessités</t>
+  </si>
+  <si>
+    <t>Elaboration du cahier des charges, finition des fonctionnalités, discussions sur l'architecture et sur les fenêtres à réaliser</t>
+  </si>
+  <si>
+    <t>Elaboration des maquettes des fenêtre Dashboard, Budget et Budget-Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaboration de la maquette de la fenêtre des Transactions, et finitions des maquettes précédentes </t>
+  </si>
+  <si>
+    <t>Distribution des heures, relecture finale du cahier des charges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche cours JavaFX, et premier essais </t>
+  </si>
+  <si>
+    <t>Maquettes fenêtre de connexions/inscription</t>
+  </si>
+  <si>
+    <t>Maquette fenêtre des comptes bancaires (vue générale, détail, modification)</t>
+  </si>
+  <si>
+    <t>Revue du cahier des charges, de la planification et de la répartition des heures avec le professeur</t>
+  </si>
+  <si>
+    <t>Discussion et correction des maquettes, et du schémas SQL</t>
+  </si>
+  <si>
+    <t>apprentissage JavaFX, et quelques premier essais</t>
+  </si>
+  <si>
+    <t>Discussion schémas base de données, organisation du projet (arborescence), établissements des objectifs de la semaine</t>
+  </si>
+  <si>
+    <t>Apprentissage JavaFX, ébauche de la fenêtre principale</t>
+  </si>
+  <si>
+    <t>Reflexion sur le Logo</t>
+  </si>
+  <si>
+    <t>Elaboration de la fenêtre principale, rédaction du rapport</t>
+  </si>
+  <si>
+    <t>Discussion des possibilité pour la GUI, élaboration du schémas UML</t>
+  </si>
+  <si>
+    <t>N° Sem</t>
+  </si>
+  <si>
+    <t>Apprentissage JavaFX, élaboration de la fenêtre principale</t>
+  </si>
+  <si>
+    <t>Aide à la réalisation de la fenêtre principale</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport hebdomadaire</t>
+  </si>
+  <si>
+    <t>Création des maquettes des vue de catégorie (liste et édition/création) et de l'édition d'une transaction</t>
+  </si>
+  <si>
+    <t>Discussions présentation, établissement des objectifs/du déroulement de la semaine, validation des dernières maquettes</t>
+  </si>
+  <si>
+    <t>Création de la vue des catégories, et de la liste des transactions</t>
+  </si>
+  <si>
+    <t>Correction de code qui empêchait l'exécution du projet (emplacement des ressources erronnée)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création des vues de création de catégorie, et de détail du compte bancaire. Apprentissage JavaFX, élaboration de l'interaction entre les fenêtres </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -105,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -128,11 +216,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -151,8 +354,50 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,33 +678,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,154 +716,448 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>43150</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>43154</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>43157</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43159</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>43161</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43163</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17">
+        <v>4.75</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>43163</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3.75</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>43164</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2</v>
+      </c>
+      <c r="D12" s="20">
         <v>3</v>
       </c>
-      <c r="C32" s="9">
-        <f>SUM(C5:C31)</f>
-        <v>0</v>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43164</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43165</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43168</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>43170</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>43171</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>43173</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2</v>
+      </c>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>43178</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>43179</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43181</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>43184</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="18">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>43185</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>43188</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>43189</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>43162</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>43196</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1.75</v>
+      </c>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>43199</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>43202</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>43203</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>43204</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="9">
+        <f>SUM(C5:C46)</f>
+        <v>47.45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D20:D23"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B9F007DE-095B-4259-9E14-9CB329C5DCD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{778E6F15-8FD6-45F9-B8CD-D229F8D51F6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,24 @@
   </si>
   <si>
     <t xml:space="preserve">Création des vues de création de catégorie, et de détail du compte bancaire. Apprentissage JavaFX, élaboration de l'interaction entre les fenêtres </t>
+  </si>
+  <si>
+    <t>Rédaction du rapport hebdomadaire, relecture de la partie GUI du PPT</t>
+  </si>
+  <si>
+    <t>présentation intermediaire</t>
+  </si>
+  <si>
+    <t>implémentation de l'interaction entre la liste de compte et le formulaire de création de compte.</t>
+  </si>
+  <si>
+    <t>Définition des fonctionnalités manquantes dû à notre retard. Répartition des tâches, et définition des buts de la semaine</t>
+  </si>
+  <si>
+    <t>Révision de l'implémentation de la fenêtre principale, implémentation de la fenêtre de la liste des catégories et du formulaire des catégories</t>
+  </si>
+  <si>
+    <t>Documentation (JdT, Rapport)</t>
   </si>
 </sst>
 </file>
@@ -193,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -331,11 +349,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -384,6 +490,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,6 +506,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,10 +822,10 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -730,7 +854,7 @@
       <c r="C5" s="17">
         <v>0.25</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="25">
         <v>1</v>
       </c>
     </row>
@@ -744,7 +868,7 @@
       <c r="C6" s="18">
         <v>0.75</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -756,7 +880,7 @@
       <c r="C7" s="19">
         <v>0.5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="21">
         <v>2</v>
       </c>
     </row>
@@ -770,7 +894,7 @@
       <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -782,7 +906,7 @@
       <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -794,7 +918,7 @@
       <c r="C10" s="17">
         <v>4.75</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -806,7 +930,7 @@
       <c r="C11" s="18">
         <v>3.75</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -818,7 +942,7 @@
       <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <v>3</v>
       </c>
     </row>
@@ -832,7 +956,7 @@
       <c r="C13" s="17">
         <v>1.5</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -844,7 +968,7 @@
       <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -856,7 +980,7 @@
       <c r="C15" s="17">
         <v>1.25</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
@@ -868,7 +992,7 @@
       <c r="C16" s="18">
         <v>2</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -880,7 +1004,7 @@
       <c r="C17" s="19">
         <v>0.5</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="21">
         <v>4</v>
       </c>
     </row>
@@ -894,7 +1018,7 @@
       <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
@@ -906,7 +1030,7 @@
       <c r="C19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -918,7 +1042,7 @@
       <c r="C20" s="19">
         <v>1.5</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="21">
         <v>5</v>
       </c>
     </row>
@@ -932,7 +1056,7 @@
       <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -944,7 +1068,7 @@
       <c r="C22" s="17">
         <v>2.5</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
@@ -956,7 +1080,7 @@
       <c r="C23" s="18">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
@@ -968,7 +1092,7 @@
       <c r="C24" s="19">
         <v>1.5</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="21">
         <v>6</v>
       </c>
     </row>
@@ -982,7 +1106,7 @@
       <c r="C25" s="17">
         <v>1.25</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
@@ -994,7 +1118,7 @@
       <c r="C26" s="18">
         <v>1</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1006,7 +1130,7 @@
       <c r="C27" s="19">
         <v>0.75</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="21">
         <v>7</v>
       </c>
     </row>
@@ -1020,7 +1144,7 @@
       <c r="C28" s="18">
         <v>1.75</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -1029,10 +1153,10 @@
       <c r="B29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="19">
         <v>1.5</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="21">
         <v>8</v>
       </c>
     </row>
@@ -1043,9 +1167,10 @@
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="17">
         <v>2</v>
       </c>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1054,9 +1179,10 @@
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="17">
         <v>2</v>
       </c>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -1065,91 +1191,140 @@
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>43205</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>43206</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
+        <v>43207</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>43213</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29">
+        <v>43219</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="18">
+        <v>5</v>
+      </c>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>43220</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="9">
         <f>SUM(C5:C46)</f>
-        <v>47.45</v>
+        <v>58.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D29:D33"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="D20:D23"/>

--- a/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{778E6F15-8FD6-45F9-B8CD-D229F8D51F6F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84C6271E-AEF5-40F2-B272-EBF99590B701}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Documentation (JdT, Rapport)</t>
+  </si>
+  <si>
+    <t>Vue de la liste des budgets</t>
   </si>
 </sst>
 </file>
@@ -493,34 +496,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,7 +809,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,10 +825,10 @@
       <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -854,7 +857,7 @@
       <c r="C5" s="17">
         <v>0.25</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="30">
         <v>1</v>
       </c>
     </row>
@@ -868,7 +871,7 @@
       <c r="C6" s="18">
         <v>0.75</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -880,7 +883,7 @@
       <c r="C7" s="19">
         <v>0.5</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="26">
         <v>2</v>
       </c>
     </row>
@@ -894,7 +897,7 @@
       <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -906,7 +909,7 @@
       <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -918,7 +921,7 @@
       <c r="C10" s="17">
         <v>4.75</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -930,7 +933,7 @@
       <c r="C11" s="18">
         <v>3.75</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -942,7 +945,7 @@
       <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="26">
         <v>3</v>
       </c>
     </row>
@@ -956,7 +959,7 @@
       <c r="C13" s="17">
         <v>1.5</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -968,7 +971,7 @@
       <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -980,7 +983,7 @@
       <c r="C15" s="17">
         <v>1.25</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
@@ -992,7 +995,7 @@
       <c r="C16" s="18">
         <v>2</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1004,7 +1007,7 @@
       <c r="C17" s="19">
         <v>0.5</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="26">
         <v>4</v>
       </c>
     </row>
@@ -1018,7 +1021,7 @@
       <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
@@ -1030,7 +1033,7 @@
       <c r="C19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -1042,7 +1045,7 @@
       <c r="C20" s="19">
         <v>1.5</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="26">
         <v>5</v>
       </c>
     </row>
@@ -1056,7 +1059,7 @@
       <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="22"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1068,7 +1071,7 @@
       <c r="C22" s="17">
         <v>2.5</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
@@ -1080,7 +1083,7 @@
       <c r="C23" s="18">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
@@ -1092,7 +1095,7 @@
       <c r="C24" s="19">
         <v>1.5</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="26">
         <v>6</v>
       </c>
     </row>
@@ -1106,7 +1109,7 @@
       <c r="C25" s="17">
         <v>1.25</v>
       </c>
-      <c r="D25" s="22"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
@@ -1118,7 +1121,7 @@
       <c r="C26" s="18">
         <v>1</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1130,7 +1133,7 @@
       <c r="C27" s="19">
         <v>0.75</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="26">
         <v>7</v>
       </c>
     </row>
@@ -1144,7 +1147,7 @@
       <c r="C28" s="18">
         <v>1.75</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -1156,7 +1159,7 @@
       <c r="C29" s="19">
         <v>1.5</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="26">
         <v>8</v>
       </c>
     </row>
@@ -1170,7 +1173,7 @@
       <c r="C30" s="17">
         <v>2</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
@@ -1182,7 +1185,7 @@
       <c r="C31" s="17">
         <v>2</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
@@ -1194,7 +1197,7 @@
       <c r="C32" s="17">
         <v>4</v>
       </c>
-      <c r="D32" s="22"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
@@ -1206,24 +1209,24 @@
       <c r="C33" s="20">
         <v>1.5</v>
       </c>
-      <c r="D33" s="23"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="A34" s="21">
         <v>43206</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="23">
         <v>0.25</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
+      <c r="A35" s="24">
         <v>43207</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -1232,24 +1235,24 @@
       <c r="C35" s="20">
         <v>1</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
+      <c r="A36" s="21">
         <v>43213</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="25">
         <v>1.5</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29">
+      <c r="A37" s="24">
         <v>43219</v>
       </c>
       <c r="B37" s="14" t="s">
@@ -1258,7 +1261,7 @@
       <c r="C37" s="18">
         <v>5</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
@@ -1272,9 +1275,15 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="3">
+        <v>43221</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="8">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1317,22 +1326,22 @@
       </c>
       <c r="C47" s="9">
         <f>SUM(C5:C46)</f>
-        <v>58.2</v>
+        <v>61.45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D24:D26"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D24:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{84C6271E-AEF5-40F2-B272-EBF99590B701}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02A813EF-7570-433A-95A5-26520B3E63E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Vue de la liste des budgets</t>
+  </si>
+  <si>
+    <t>Total hebdo</t>
+  </si>
+  <si>
+    <t>Vac</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -353,85 +359,125 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -444,10 +490,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,28 +537,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,6 +560,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,542 +877,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="16"/>
+    <col min="5" max="5" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>43150</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>0.25</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
+        <f>SUM(C5:C6)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>43154</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>0.75</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="D6" s="26"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>43157</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>0.5</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
+        <f>SUM(C7:C11)</f>
+        <v>12</v>
+      </c>
+      <c r="E7" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>43159</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="D8" s="23"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>43161</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="D9" s="23"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>43163</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>4.75</v>
       </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="D10" s="23"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
         <v>43163</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="16">
         <v>3.75</v>
       </c>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="D11" s="26"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>43164</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
+        <f>SUM(C12:C16)</f>
+        <v>7.75</v>
+      </c>
+      <c r="E12" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>43164</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>1.5</v>
       </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="D13" s="23"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>43165</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="D14" s="23"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>43168</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>1.25</v>
       </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="D15" s="23"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>43170</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="16">
         <v>2</v>
       </c>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="D16" s="26"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>43171</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>0.5</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="22">
+        <f>SUM(C17:C19)</f>
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>43171</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="D18" s="23"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
         <v>43173</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="D19" s="26"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>43178</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>1.5</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="22">
+        <f>SUM(C20:C23)</f>
+        <v>7.45</v>
+      </c>
+      <c r="E20" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>43179</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D21" s="23"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>43181</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>2.5</v>
       </c>
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+      <c r="D22" s="23"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
         <v>43184</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D23" s="28"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="D23" s="26"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>43185</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>1.5</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="23">
+        <f>SUM(C24:C26)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E24" s="30">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>43188</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>1.25</v>
       </c>
-      <c r="D25" s="28"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+      <c r="D25" s="23"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>43189</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <v>1</v>
       </c>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="D26" s="26"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>43162</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>0.75</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="22">
+        <f>SUM(C27:C28)</f>
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>43196</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1.75</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>43199</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="22">
+        <f>SUM(C29:C33)</f>
+        <v>11</v>
+      </c>
+      <c r="E29" s="30">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
-        <v>43196</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="18">
-        <v>1.75</v>
-      </c>
-      <c r="D28" s="27"/>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>43199</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="19">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43202</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43203</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="15">
+        <v>2</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43204</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>43205</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="16">
         <v>1.5</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D33" s="26"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>43206</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="22">
+        <f>SUM(C34:C35)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E34" s="30">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>43202</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="17">
-        <v>2</v>
-      </c>
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>43203</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="17">
-        <v>2</v>
-      </c>
-      <c r="D31" s="28"/>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>43204</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="17">
-        <v>4</v>
-      </c>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13">
-        <v>43205</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="20">
+    <row r="35" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
+        <v>43207</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>43213</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="21">
         <v>1.5</v>
       </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21">
-        <v>43206</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="D34" s="26">
+      <c r="D36" s="22">
+        <f>SUM(C36:C37)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E36" s="30">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
-        <v>43207</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="20">
-        <v>1</v>
-      </c>
-      <c r="D35" s="27"/>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
-        <v>43213</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="25">
+    <row r="37" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
+        <v>43219</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="16">
+        <v>5</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>43220</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="10">
         <v>1.5</v>
       </c>
-      <c r="D36" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24">
-        <v>43219</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="18">
-        <v>5</v>
-      </c>
-      <c r="D37" s="27"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>43220</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="D38" s="27"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>43221</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="6">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+      <c r="D39" s="27"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="27"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="27"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="7">
         <f>SUM(C5:C46)</f>
         <v>61.45</v>
       </c>
+      <c r="D47" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E20:E23"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D24:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02A813EF-7570-433A-95A5-26520B3E63E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B17C299C-26DE-4AE3-811A-48B0EF733B5F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>Vac</t>
+  </si>
+  <si>
+    <t>Elaboration de la vue de la liste des budgets, premier essais du formulaire des budget</t>
+  </si>
+  <si>
+    <t>Implémentation de la suppression et de la modification d'un objet</t>
+  </si>
+  <si>
+    <t>Utilisation des méthode de modification et de suppression dans la DB, implémentation da la partie confirmation de l'enregistrement</t>
+  </si>
+  <si>
+    <t>Revue de la structure de certaines fenêtres, élaboration de certains détails. Documentation (JdT, rapport)</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -486,11 +498,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -549,53 +576,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,28 +926,28 @@
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:5" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:5" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -931,11 +961,11 @@
       <c r="C5" s="15">
         <v>0.25</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="34">
         <f>SUM(C5:C6)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
     </row>
@@ -949,8 +979,8 @@
       <c r="C6" s="16">
         <v>0.75</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -962,11 +992,11 @@
       <c r="C7" s="17">
         <v>0.5</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="36">
         <f>SUM(C7:C11)</f>
         <v>12</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>2</v>
       </c>
     </row>
@@ -980,8 +1010,8 @@
       <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -993,8 +1023,8 @@
       <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1006,8 +1036,8 @@
       <c r="C10" s="15">
         <v>4.75</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
@@ -1019,8 +1049,8 @@
       <c r="C11" s="16">
         <v>3.75</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1032,11 +1062,11 @@
       <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="36">
         <f>SUM(C12:C16)</f>
         <v>7.75</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>3</v>
       </c>
     </row>
@@ -1050,8 +1080,8 @@
       <c r="C13" s="15">
         <v>1.5</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1063,8 +1093,8 @@
       <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="31"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1076,8 +1106,8 @@
       <c r="C15" s="15">
         <v>1.25</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="31"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -1089,8 +1119,8 @@
       <c r="C16" s="16">
         <v>2</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -1102,11 +1132,11 @@
       <c r="C17" s="17">
         <v>0.5</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="36">
         <f>SUM(C17:C19)</f>
         <v>3.5</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>4</v>
       </c>
     </row>
@@ -1120,8 +1150,8 @@
       <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -1133,8 +1163,8 @@
       <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="29"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -1146,11 +1176,11 @@
       <c r="C20" s="17">
         <v>1.5</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="36">
         <f>SUM(C20:C23)</f>
         <v>7.45</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>5</v>
       </c>
     </row>
@@ -1164,8 +1194,8 @@
       <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1177,8 +1207,8 @@
       <c r="C22" s="15">
         <v>2.5</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
@@ -1190,8 +1220,8 @@
       <c r="C23" s="16">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
@@ -1203,11 +1233,11 @@
       <c r="C24" s="17">
         <v>1.5</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="37">
         <f>SUM(C24:C26)</f>
         <v>3.75</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>6</v>
       </c>
     </row>
@@ -1221,8 +1251,8 @@
       <c r="C25" s="15">
         <v>1.25</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
@@ -1234,8 +1264,8 @@
       <c r="C26" s="16">
         <v>1</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="29"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1247,11 +1277,11 @@
       <c r="C27" s="17">
         <v>0.75</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="36">
         <f>SUM(C27:C28)</f>
         <v>2.5</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1265,8 +1295,8 @@
       <c r="C28" s="16">
         <v>1.75</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="29"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
@@ -1278,11 +1308,11 @@
       <c r="C29" s="17">
         <v>1.5</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="36">
         <f>SUM(C29:C33)</f>
         <v>11</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="29">
         <v>7</v>
       </c>
     </row>
@@ -1296,8 +1326,8 @@
       <c r="C30" s="15">
         <v>2</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1309,8 +1339,8 @@
       <c r="C31" s="15">
         <v>2</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1322,8 +1352,8 @@
       <c r="C32" s="15">
         <v>4</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
@@ -1335,8 +1365,8 @@
       <c r="C33" s="16">
         <v>1.5</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
@@ -1348,11 +1378,11 @@
       <c r="C34" s="21">
         <v>0.25</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="36">
         <f>SUM(C34:C35)</f>
         <v>1.25</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <v>8</v>
       </c>
     </row>
@@ -1366,8 +1396,8 @@
       <c r="C35" s="16">
         <v>1</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
@@ -1379,11 +1409,11 @@
       <c r="C36" s="21">
         <v>1.5</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="36">
         <f>SUM(C36:C37)</f>
         <v>6.5</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>9</v>
       </c>
     </row>
@@ -1397,74 +1427,107 @@
       <c r="C37" s="16">
         <v>5</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="29"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="18">
         <v>43220</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="21">
         <v>1.5</v>
       </c>
-      <c r="D38" s="27"/>
+      <c r="D38" s="36">
+        <f>SUM(C38:C41)</f>
+        <v>12.75</v>
+      </c>
+      <c r="E38" s="36">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="38">
         <v>43221</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="15">
         <v>3.25</v>
       </c>
-      <c r="D39" s="27"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="27"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="27"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="27"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="27"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="38">
+        <v>43232</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="15">
+        <v>3</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+    </row>
+    <row r="41" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20">
+        <v>43226</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="16">
+        <v>5</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>43227</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3</v>
+      </c>
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43228</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="6">
+        <v>3</v>
+      </c>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="27"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="27"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="27"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
@@ -1472,12 +1535,14 @@
       </c>
       <c r="C47" s="7">
         <f>SUM(C5:C46)</f>
-        <v>61.45</v>
-      </c>
-      <c r="D47" s="37"/>
+        <v>75.45</v>
+      </c>
+      <c r="D47" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D33"/>
     <mergeCell ref="D34:D35"/>

--- a/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B17C299C-26DE-4AE3-811A-48B0EF733B5F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12000" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12450" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -163,13 +162,25 @@
     <t>Utilisation des méthode de modification et de suppression dans la DB, implémentation da la partie confirmation de l'enregistrement</t>
   </si>
   <si>
-    <t>Revue de la structure de certaines fenêtres, élaboration de certains détails. Documentation (JdT, rapport)</t>
+    <t>Revue de la structure de certaines fenêtres, élaboration de certains détails. Documentation (JdT, rapport), formulaire budget</t>
+  </si>
+  <si>
+    <t>Skelette de l'interface des budgets et du tableau de bord</t>
+  </si>
+  <si>
+    <t>Squelette de l'interface des dettes, développement de la liste des budgets</t>
+  </si>
+  <si>
+    <t>formulaire des budgets (sélections des catégories), liste des dettes (bouton d'ajout), réorganisation des classes de la GUI</t>
+  </si>
+  <si>
+    <t>Déconnexion de l'utilisateur, esthétique de la GUI (revue des architecture, uniformisation), documentation (JdT, Rapport)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -232,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -513,11 +524,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -597,7 +623,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -609,30 +650,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -906,11 +963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,10 +983,10 @@
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -961,11 +1018,11 @@
       <c r="C5" s="15">
         <v>0.25</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="38">
         <f>SUM(C5:C6)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="37">
         <v>1</v>
       </c>
     </row>
@@ -979,8 +1036,8 @@
       <c r="C6" s="16">
         <v>0.75</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -992,11 +1049,11 @@
       <c r="C7" s="17">
         <v>0.5</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="30">
         <f>SUM(C7:C11)</f>
         <v>12</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="33">
         <v>2</v>
       </c>
     </row>
@@ -1010,8 +1067,8 @@
       <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1023,8 +1080,8 @@
       <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1036,8 +1093,8 @@
       <c r="C10" s="15">
         <v>4.75</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
@@ -1049,8 +1106,8 @@
       <c r="C11" s="16">
         <v>3.75</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1062,11 +1119,11 @@
       <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="30">
         <f>SUM(C12:C16)</f>
         <v>7.75</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="33">
         <v>3</v>
       </c>
     </row>
@@ -1080,8 +1137,8 @@
       <c r="C13" s="15">
         <v>1.5</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1093,8 +1150,8 @@
       <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1106,8 +1163,8 @@
       <c r="C15" s="15">
         <v>1.25</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -1119,8 +1176,8 @@
       <c r="C16" s="16">
         <v>2</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -1132,11 +1189,11 @@
       <c r="C17" s="17">
         <v>0.5</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="30">
         <f>SUM(C17:C19)</f>
         <v>3.5</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="33">
         <v>4</v>
       </c>
     </row>
@@ -1150,8 +1207,8 @@
       <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="35"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -1163,8 +1220,8 @@
       <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="34"/>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -1176,11 +1233,11 @@
       <c r="C20" s="17">
         <v>1.5</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="30">
         <f>SUM(C20:C23)</f>
         <v>7.45</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="33">
         <v>5</v>
       </c>
     </row>
@@ -1194,8 +1251,8 @@
       <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1207,8 +1264,8 @@
       <c r="C22" s="15">
         <v>2.5</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="35"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
@@ -1220,8 +1277,8 @@
       <c r="C23" s="16">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
@@ -1233,11 +1290,11 @@
       <c r="C24" s="17">
         <v>1.5</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="31">
         <f>SUM(C24:C26)</f>
         <v>3.75</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="33">
         <v>6</v>
       </c>
     </row>
@@ -1251,8 +1308,8 @@
       <c r="C25" s="15">
         <v>1.25</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
@@ -1264,8 +1321,8 @@
       <c r="C26" s="16">
         <v>1</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="34"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1277,11 +1334,11 @@
       <c r="C27" s="17">
         <v>0.75</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="30">
         <f>SUM(C27:C28)</f>
         <v>2.5</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="33" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1295,8 +1352,8 @@
       <c r="C28" s="16">
         <v>1.75</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
@@ -1308,11 +1365,11 @@
       <c r="C29" s="17">
         <v>1.5</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="30">
         <f>SUM(C29:C33)</f>
         <v>11</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="33">
         <v>7</v>
       </c>
     </row>
@@ -1326,8 +1383,8 @@
       <c r="C30" s="15">
         <v>2</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1339,8 +1396,8 @@
       <c r="C31" s="15">
         <v>2</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1352,8 +1409,8 @@
       <c r="C32" s="15">
         <v>4</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
@@ -1365,8 +1422,8 @@
       <c r="C33" s="16">
         <v>1.5</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="33"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
@@ -1378,11 +1435,11 @@
       <c r="C34" s="21">
         <v>0.25</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="30">
         <f>SUM(C34:C35)</f>
         <v>1.25</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="33">
         <v>8</v>
       </c>
     </row>
@@ -1396,8 +1453,8 @@
       <c r="C35" s="16">
         <v>1</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="33"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
@@ -1409,11 +1466,11 @@
       <c r="C36" s="21">
         <v>1.5</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="30">
         <f>SUM(C36:C37)</f>
         <v>6.5</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="33">
         <v>9</v>
       </c>
     </row>
@@ -1427,8 +1484,8 @@
       <c r="C37" s="16">
         <v>5</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="34"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
@@ -1440,16 +1497,16 @@
       <c r="C38" s="21">
         <v>1.5</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="30">
         <f>SUM(C38:C41)</f>
         <v>12.75</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
+      <c r="A39" s="29">
         <v>43221</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1458,11 +1515,11 @@
       <c r="C39" s="15">
         <v>3.25</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+      <c r="A40" s="29">
         <v>43232</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1471,8 +1528,8 @@
       <c r="C40" s="15">
         <v>3</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
     </row>
     <row r="41" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
@@ -1484,8 +1541,8 @@
       <c r="C41" s="16">
         <v>5</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
@@ -1494,67 +1551,120 @@
       <c r="B42" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="17">
         <v>3</v>
       </c>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D42" s="30">
+        <f>SUM(C42:C47)</f>
+        <v>20</v>
+      </c>
+      <c r="E42" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43228</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="15">
+        <v>4</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="35"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="15">
+        <v>2</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="35"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="15">
         <v>3</v>
       </c>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+      <c r="D45" s="31"/>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="15">
         <v>3</v>
       </c>
-      <c r="C47" s="7">
-        <f>SUM(C5:C46)</f>
-        <v>75.45</v>
-      </c>
-      <c r="D47" s="28"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="35"/>
+    </row>
+    <row r="47" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>43233</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="39">
+        <v>5</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="22"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="22"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="7">
+        <f>SUM(C5:C51)</f>
+        <v>89.45</v>
+      </c>
+      <c r="D52" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E20:E23"/>
+  <mergeCells count="25">
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="D42:D47"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E11"/>
@@ -1564,6 +1674,20 @@
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
+++ b/Doc/JournauxTravail/Journal_Travail_Bryan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD4EED99-4F73-4780-B46B-117A990ECF8E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="13050" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,13 +175,13 @@
     <t>formulaire des budgets (sélections des catégories), liste des dettes (bouton d'ajout), réorganisation des classes de la GUI</t>
   </si>
   <si>
-    <t>Déconnexion de l'utilisateur, esthétique de la GUI (revue des architecture, uniformisation), documentation (JdT, Rapport)</t>
+    <t>Déconnexion de l'utilisateur, esthétique de la GUI (revue des architecture, uniformisation), documentation (JdT, Rapport), suppression Compte utilisateur, développement des dettes (liste et formulaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
@@ -626,6 +627,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,15 +646,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,9 +655,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,7 +686,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -963,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,10 +984,10 @@
       <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -1018,11 +1019,11 @@
       <c r="C5" s="15">
         <v>0.25</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="39">
         <f>SUM(C5:C6)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="38">
         <v>1</v>
       </c>
     </row>
@@ -1036,8 +1037,8 @@
       <c r="C6" s="16">
         <v>0.75</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1049,11 +1050,11 @@
       <c r="C7" s="17">
         <v>0.5</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="34">
         <f>SUM(C7:C11)</f>
         <v>12</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>2</v>
       </c>
     </row>
@@ -1067,8 +1068,8 @@
       <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1080,8 +1081,8 @@
       <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1093,8 +1094,8 @@
       <c r="C10" s="15">
         <v>4.75</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
@@ -1106,8 +1107,8 @@
       <c r="C11" s="16">
         <v>3.75</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1119,11 +1120,11 @@
       <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="34">
         <f>SUM(C12:C16)</f>
         <v>7.75</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <v>3</v>
       </c>
     </row>
@@ -1137,8 +1138,8 @@
       <c r="C13" s="15">
         <v>1.5</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1150,8 +1151,8 @@
       <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1163,8 +1164,8 @@
       <c r="C15" s="15">
         <v>1.25</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -1176,8 +1177,8 @@
       <c r="C16" s="16">
         <v>2</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -1189,11 +1190,11 @@
       <c r="C17" s="17">
         <v>0.5</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="34">
         <f>SUM(C17:C19)</f>
         <v>3.5</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>4</v>
       </c>
     </row>
@@ -1207,8 +1208,8 @@
       <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -1220,8 +1221,8 @@
       <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -1233,11 +1234,11 @@
       <c r="C20" s="17">
         <v>1.5</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="34">
         <f>SUM(C20:C23)</f>
         <v>7.45</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="31">
         <v>5</v>
       </c>
     </row>
@@ -1251,8 +1252,8 @@
       <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1264,8 +1265,8 @@
       <c r="C22" s="15">
         <v>2.5</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
@@ -1277,8 +1278,8 @@
       <c r="C23" s="16">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
@@ -1290,11 +1291,11 @@
       <c r="C24" s="17">
         <v>1.5</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="35">
         <f>SUM(C24:C26)</f>
         <v>3.75</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <v>6</v>
       </c>
     </row>
@@ -1308,8 +1309,8 @@
       <c r="C25" s="15">
         <v>1.25</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
@@ -1321,8 +1322,8 @@
       <c r="C26" s="16">
         <v>1</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="34"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="33"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1334,11 +1335,11 @@
       <c r="C27" s="17">
         <v>0.75</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="34">
         <f>SUM(C27:C28)</f>
         <v>2.5</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1352,8 +1353,8 @@
       <c r="C28" s="16">
         <v>1.75</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="34"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="33"/>
     </row>
     <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
@@ -1365,11 +1366,11 @@
       <c r="C29" s="17">
         <v>1.5</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="34">
         <f>SUM(C29:C33)</f>
         <v>11</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="31">
         <v>7</v>
       </c>
     </row>
@@ -1383,8 +1384,8 @@
       <c r="C30" s="15">
         <v>2</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -1396,8 +1397,8 @@
       <c r="C31" s="15">
         <v>2</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1409,8 +1410,8 @@
       <c r="C32" s="15">
         <v>4</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
@@ -1422,8 +1423,8 @@
       <c r="C33" s="16">
         <v>1.5</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
@@ -1435,11 +1436,11 @@
       <c r="C34" s="21">
         <v>0.25</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="34">
         <f>SUM(C34:C35)</f>
         <v>1.25</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="31">
         <v>8</v>
       </c>
     </row>
@@ -1453,8 +1454,8 @@
       <c r="C35" s="16">
         <v>1</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
@@ -1466,11 +1467,11 @@
       <c r="C36" s="21">
         <v>1.5</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="34">
         <f>SUM(C36:C37)</f>
         <v>6.5</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="31">
         <v>9</v>
       </c>
     </row>
@@ -1484,8 +1485,8 @@
       <c r="C37" s="16">
         <v>5</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="34"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
@@ -1497,11 +1498,11 @@
       <c r="C38" s="21">
         <v>1.5</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="34">
         <f>SUM(C38:C41)</f>
         <v>12.75</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="34">
         <v>10</v>
       </c>
     </row>
@@ -1515,8 +1516,8 @@
       <c r="C39" s="15">
         <v>3.25</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
@@ -1528,8 +1529,8 @@
       <c r="C40" s="15">
         <v>3</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
     </row>
     <row r="41" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
@@ -1541,8 +1542,8 @@
       <c r="C41" s="16">
         <v>5</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
@@ -1554,11 +1555,11 @@
       <c r="C42" s="17">
         <v>3</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="34">
         <f>SUM(C42:C47)</f>
-        <v>20</v>
-      </c>
-      <c r="E42" s="33">
+        <v>22</v>
+      </c>
+      <c r="E42" s="31">
         <v>11</v>
       </c>
     </row>
@@ -1572,8 +1573,8 @@
       <c r="C43" s="15">
         <v>4</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -1585,8 +1586,8 @@
       <c r="C44" s="15">
         <v>2</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -1598,8 +1599,8 @@
       <c r="C45" s="15">
         <v>3</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -1611,21 +1612,21 @@
       <c r="C46" s="15">
         <v>3</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="35"/>
-    </row>
-    <row r="47" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="35"/>
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>43233</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="39">
-        <v>5</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="34"/>
+      <c r="C47" s="30">
+        <v>7</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="33"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -1657,12 +1658,21 @@
       </c>
       <c r="C52" s="7">
         <f>SUM(C5:C51)</f>
-        <v>89.45</v>
+        <v>91.45</v>
       </c>
       <c r="D52" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="E42:E47"/>
     <mergeCell ref="D42:D47"/>
     <mergeCell ref="A2:B2"/>
@@ -1679,15 +1689,6 @@
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
